--- a/published-data/fonds-solidarite/fds-2022-06-07/fonds-solidarite-volet-1-regional-naf.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-07/fonds-solidarite-volet-1-regional-naf.xlsx
@@ -820,13 +820,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>278199</v>
+        <v>278200</v>
       </c>
       <c r="D10" t="n">
         <v>29589</v>
       </c>
       <c r="E10" t="n">
-        <v>1752276968</v>
+        <v>1752278885</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -2009,13 +2009,13 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>31688</v>
+        <v>31689</v>
       </c>
       <c r="D39" t="n">
         <v>7353</v>
       </c>
       <c r="E39" t="n">
-        <v>63287122</v>
+        <v>63371159</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -2706,13 +2706,13 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>33209</v>
+        <v>33210</v>
       </c>
       <c r="D56" t="n">
         <v>4454</v>
       </c>
       <c r="E56" t="n">
-        <v>108831783</v>
+        <v>108834427</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -3895,13 +3895,13 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>10748</v>
+        <v>10749</v>
       </c>
       <c r="D85" t="n">
         <v>1848</v>
       </c>
       <c r="E85" t="n">
-        <v>47052187</v>
+        <v>47053687</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -5904,13 +5904,13 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>5678</v>
+        <v>5680</v>
       </c>
       <c r="D134" t="n">
         <v>599</v>
       </c>
       <c r="E134" t="n">
-        <v>17162226</v>
+        <v>17175156</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
@@ -6273,13 +6273,13 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>2069</v>
+        <v>2070</v>
       </c>
       <c r="D143" t="n">
         <v>299</v>
       </c>
       <c r="E143" t="n">
-        <v>3752857</v>
+        <v>3754697</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
@@ -7257,13 +7257,13 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>101534</v>
+        <v>101535</v>
       </c>
       <c r="D167" t="n">
         <v>32176</v>
       </c>
       <c r="E167" t="n">
-        <v>194977430</v>
+        <v>195051292</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
@@ -7339,13 +7339,13 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>562617</v>
+        <v>562618</v>
       </c>
       <c r="D169" t="n">
         <v>60955</v>
       </c>
       <c r="E169" t="n">
-        <v>1285074656</v>
+        <v>1285077512</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
@@ -7380,13 +7380,13 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>367429</v>
+        <v>367437</v>
       </c>
       <c r="D170" t="n">
         <v>38111</v>
       </c>
       <c r="E170" t="n">
-        <v>2846445782</v>
+        <v>2846599233</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
@@ -7421,13 +7421,13 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>115171</v>
+        <v>115173</v>
       </c>
       <c r="D171" t="n">
         <v>20264</v>
       </c>
       <c r="E171" t="n">
-        <v>447152412</v>
+        <v>447158183</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
@@ -7544,13 +7544,13 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>357259</v>
+        <v>357262</v>
       </c>
       <c r="D174" t="n">
         <v>69789</v>
       </c>
       <c r="E174" t="n">
-        <v>1018567296</v>
+        <v>1018669995</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
@@ -7585,13 +7585,13 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>125562</v>
+        <v>125563</v>
       </c>
       <c r="D175" t="n">
         <v>18100</v>
       </c>
       <c r="E175" t="n">
-        <v>813543575</v>
+        <v>813587329</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
@@ -7667,13 +7667,13 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>96762</v>
+        <v>96764</v>
       </c>
       <c r="D177" t="n">
         <v>16507</v>
       </c>
       <c r="E177" t="n">
-        <v>174756545</v>
+        <v>174782722</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
@@ -7749,13 +7749,13 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>235728</v>
+        <v>235730</v>
       </c>
       <c r="D179" t="n">
         <v>29338</v>
       </c>
       <c r="E179" t="n">
-        <v>812752316</v>
+        <v>812758054</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
@@ -8036,13 +8036,13 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>21935</v>
+        <v>21936</v>
       </c>
       <c r="D186" t="n">
         <v>5228</v>
       </c>
       <c r="E186" t="n">
-        <v>40057160</v>
+        <v>40105992</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
@@ -10865,13 +10865,13 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>141364</v>
+        <v>141367</v>
       </c>
       <c r="D255" t="n">
         <v>32124</v>
       </c>
       <c r="E255" t="n">
-        <v>414338681</v>
+        <v>414361455</v>
       </c>
       <c r="F255" t="inlineStr">
         <is>
@@ -11357,13 +11357,13 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>84977</v>
+        <v>84978</v>
       </c>
       <c r="D267" t="n">
         <v>20049</v>
       </c>
       <c r="E267" t="n">
-        <v>156521773</v>
+        <v>156522342</v>
       </c>
       <c r="F267" t="inlineStr">
         <is>
@@ -13161,13 +13161,13 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>190855</v>
+        <v>190856</v>
       </c>
       <c r="D311" t="n">
         <v>37720</v>
       </c>
       <c r="E311" t="n">
-        <v>586439026</v>
+        <v>586445221</v>
       </c>
       <c r="F311" t="inlineStr">
         <is>
@@ -13653,13 +13653,13 @@
         </is>
       </c>
       <c r="C323" t="n">
-        <v>94723</v>
+        <v>94724</v>
       </c>
       <c r="D323" t="n">
         <v>19883</v>
       </c>
       <c r="E323" t="n">
-        <v>178791085</v>
+        <v>178792585</v>
       </c>
       <c r="F323" t="inlineStr">
         <is>
